--- a/機能一覧.xlsx
+++ b/機能一覧.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="2">
@@ -72,22 +72,6 @@
   </si>
   <si>
     <t>new</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>create</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>update</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>destroy</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>edit</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -166,27 +150,235 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>新規登録</t>
+    <t>new</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>edit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既存レコードの編集</t>
+    <rPh sb="0" eb="2">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規レコード登録</t>
     <rPh sb="0" eb="2">
       <t>シンキ</t>
     </rPh>
-    <rPh sb="2" eb="4">
+    <rPh sb="6" eb="8">
       <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>新規データ登録</t>
+    <t>destroy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・新規登録画面に遷移する。
+・新規データを入力しDBに登録する。
+・エラーチェック（必須入力不足等）</t>
+    <rPh sb="1" eb="3">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>フソク</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・登録情報一覧画面で選択したレコードの編集画面に遷移する。
+・編集した情報をDBに登録する。
+・エラーチェック（必須入力不足等）</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既存レコードの削除</t>
     <rPh sb="0" eb="2">
-      <t>シンキ</t>
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・登録情報一覧画面で選択したレコードを削除する。
+・削除したレコードをDBからも削除する。
+・HE防止（本当に削除してもいいですか？）</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
     </rPh>
     <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>new</t>
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ボウシ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ホントウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB:Mysql用のDTO(ゲッター/セッター）</t>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB:Amazon(仮）用のDTO(ゲッター/セッター）</t>
+    <rPh sb="10" eb="11">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィルター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DTO
+DB:MySqlと通信</t>
+    <rPh sb="13" eb="15">
+      <t>ツウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DTO？
+DB:AmazonAPIと通信</t>
+    <rPh sb="18" eb="20">
+      <t>ツウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DAO
+DB:MySql用</t>
+    <rPh sb="12" eb="13">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DAO
+DB:AmazonAPI用</t>
+    <rPh sb="16" eb="17">
+      <t>ヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -218,7 +410,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,6 +420,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,7 +459,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -276,6 +474,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -557,27 +758,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G23"/>
+  <dimension ref="B1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="45.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="55.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -597,13 +801,13 @@
     </row>
     <row r="2" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>5</v>
@@ -611,97 +815,153 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:7" ht="47.25" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+    <row r="5" spans="2:7" ht="47.25" x14ac:dyDescent="0.15">
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+    <row r="7" spans="2:7" ht="47.25" x14ac:dyDescent="0.15">
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="2:7" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+    <row r="10" spans="2:7" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+    <row r="11" spans="2:7" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+    <row r="12" spans="2:7" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -709,7 +969,9 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -723,31 +985,6 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C19" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C20" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C21" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C22" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C23" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/機能一覧.xlsx
+++ b/機能一覧.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="8970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11115" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="一覧シート" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="2">
@@ -50,23 +50,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>受け取るデータ</t>
-    <rPh sb="0" eb="1">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>渡すデータ</t>
-    <rPh sb="0" eb="1">
-      <t>ワタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>index</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -79,10 +62,6 @@
     <rPh sb="4" eb="6">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>index(show)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -332,16 +311,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DB:Amazon(仮）用のDTO(ゲッター/セッター）</t>
-    <rPh sb="10" eb="11">
-      <t>カリ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CSS</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -358,14 +327,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DTO？
-DB:AmazonAPIと通信</t>
-    <rPh sb="18" eb="20">
-      <t>ツウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DAO
 DB:MySql用</t>
     <rPh sb="12" eb="13">
@@ -374,10 +335,130 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DAO
-DB:AmazonAPI用</t>
-    <rPh sb="16" eb="17">
+    <t>受け取るデータ（形式）</t>
+    <rPh sb="0" eb="1">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※データ形式：form？クエリ？JSON?</t>
+    <rPh sb="4" eb="6">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB:画像、分類、名称、登録日、評価
+JSP:分類のフィルタ</t>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JSP：ラジオボタンの選択データ。</t>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>渡すデータ（形式）</t>
+    <rPh sb="0" eb="1">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AmazonAPI用Servlet</t>
+    <rPh sb="9" eb="10">
       <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fromAmazon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・登録/変更時、「名称」をもとにAmaonの画像、評価を入手する</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニュウシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・JSP：ID、名称</t>
+    <rPh sb="8" eb="10">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・DB:ID、画像、評価</t>
+    <rPh sb="7" eb="9">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -758,30 +839,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G15"/>
+  <dimension ref="B1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="55.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -793,197 +874,206 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" ht="78.75" x14ac:dyDescent="0.15">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="47.25" x14ac:dyDescent="0.15">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B2" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="F3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="47.25" x14ac:dyDescent="0.15">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="2:7" ht="47.25" x14ac:dyDescent="0.15">
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="2:7" ht="47.25" x14ac:dyDescent="0.15">
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="2:7" ht="47.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9" ht="47.25" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="2:7" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="3" t="s">
+    <row r="8" spans="2:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="2:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="2:7" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="2:7" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="2:7" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
